--- a/test_dataIngestionTool/TestCoverage.xlsx
+++ b/test_dataIngestionTool/TestCoverage.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk250102\Documents\Teradata\DIT\DataIngestionTool\test_dataIngestionTool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HG250013\Downloads\git\DataIngestionTool\test_dataIngestionTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C975ED39-1A9C-42FC-8623-D2F688FA5E76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A28D47A-CBD9-4893-AC2E-1A55C93B7C58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{5EEFDD09-0AC9-4559-9F94-1E050A7244EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19195" windowHeight="6955" activeTab="1" xr2:uid="{5EEFDD09-0AC9-4559-9F94-1E050A7244EF}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Sr No</t>
   </si>
@@ -102,6 +103,53 @@
   </si>
   <si>
     <t>one infer schema other with schema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excution </t>
+  </si>
+  <si>
+    <t>Issues with packaging due to Pandas</t>
+  </si>
+  <si>
+    <t>Raised with pandas-dev</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>driver.py is failing if driver.py  is not in dataPrepartion folder. If moved the driver.py in dataPrepartion then there is no error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-01-16 07:28:04.514253 The exception occured for :: /home/harry/DataIngestionTool_dist/config/process/prc_PrcId_4.json
+Exception::msg module 'logr' has no attribute 'Log4j'
+Traceback (most recent call last):
+  File "/home/harry/dataIngestionTool-0.1-py2-none-any.zip/dataIngestionTool/dataPrepartion/dataIngestion.py", line 510, in processFiles
+    spark_logger = logg.Log4j(argTuple[1],key)
+AttributeError: module 'logr' has no attribute 'Log4j'
+</t>
+  </si>
+  <si>
+    <t>I have created a Spark project in Python in which I am using the module pandas and packaged the spark project using wheel as per the these steps: -
+pip wheel -r requirements.txt -w dist
+it will create 'wheel' files for all explicit and implicit dependencies from our 'requirement.txt' file and put them into 'dist' directory.
+To build our project artifacts.
+python setup.py bdist_wheel
+This will create another 'wheel' (zip file underneath) in 'dist' directory with our application files. Renamed our 'wheel' files as zip files and provide them to '--py-files' option to submit the spark job.
+This is spark submit command I am submitting to execute my job.
+spark-submit --py-files certifi-2018.11.29-py2.py3-none-any.zip,findspark-1.3.0-py2.py3-none-any.zip,idna-2.8-py2.py3-none-any.zip,kafka-1.3.5-py2.py3-none-any.zip,Logr-0.2.2-cp27-none-any.zip,mysql_connector-2.1.6-cp27-cp27mu-linux_x86_64.zip,panda-0.3.1-cp27-none-any.zip,py4j-0.10.7-py2.py3-none-any.zip,python_dateutil-2.7.5-py2.py3-none-any.zip,pytz-2018.7-py2.py3-none-any.zip,req-1.0.0-py2.py3-none-any.zip,requests-2.21.0-py2.py3-none-any.zip,setuptools-40.6.3-py2.py3-none-any.zip,six-1.12.0-py2.py3-none-any.zip,urllib3-1.24.1-py2.py3-none-any.zip,zope.interface-4.6.0-cp27-cp27mu-manylinux1_x86_64.zip,configparser-3.5.0-py2-none-any.zip,pandas-0.23.4-cp27-cp27mu-manylinux1_x86_64.zip,numpy-1.15.4-cp27-cp27mu-manylinux1_x86_64.zip,test_spark_submit-0.1.zip driver.py test_spark_submit.subfolder.spark_script parameter_to_pass_to_module
+Issue is when we fire this command it is failing with error while all other module dependencies are working fine (like kafka, findspark and etc.).
+It seems pandas is dependent on numpy and even numpy(numpy-1.15.4-cp27-cp27mu-manylinux1_x86_64.zip) is given in command but still it is not referring this.
+File "/home/harry/pandas-0.23.4-cp27-cp27mu-manylinux1_x86_64.zip/pandas/init.py", line 19, in 
+ImportError: Missing required dependencies ['numpy']
+During handling of the above exception, another exception occurred:
+Traceback (most recent call last):
+File "/home/harry/DataIngestionTool_dist/driver.py", line 44, in 
+raise Exception("Exception::Job %s failed with msg %s" %(args.job_name, str(e)))
+Exception: Exception::Job dataIngestionTool.dataPrepartion.dataIngestion failed with msg Missing required dependencies ['numpy']
+I want to package in this way as I can manage all the dependencies effectively.</t>
+  </si>
+  <si>
+    <t>Virtual Machine</t>
   </si>
 </sst>
 </file>
@@ -143,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -153,6 +201,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,19 +525,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A72C3D9-D62E-4534-8F67-1F67615B15D3}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.25" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="128.4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -510,7 +565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -518,7 +573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -526,7 +581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="99.85" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -534,7 +589,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -542,7 +597,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -553,7 +608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -564,7 +619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="145" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="142.65" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -575,67 +630,67 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -643,4 +698,89 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE1C528-A727-4B6D-89CD-E07E69C65BE4}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43470</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="99.85" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>